--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>first name</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>wouldn't you like to know</t>
+  </si>
+  <si>
+    <t>Michelle</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,6 +406,22 @@
         <v>3605554433</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3609035009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3609532299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>first name</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>wouldn't you like to know</t>
-  </si>
-  <si>
-    <t>Michelle</t>
   </si>
 </sst>
 </file>
@@ -372,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,22 +403,6 @@
         <v>3605554433</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3609035009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3609532299</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
